--- a/INTLINE/data/542/BOKNA/Monthly_NA1.xlsx
+++ b/INTLINE/data/542/BOKNA/Monthly_NA1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DBB68F-8F9C-4A51-A95D-09C1B0E055E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F5C9E7-AEF3-4F91-9D68-190128852AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="720">
   <si>
     <t>StatisticalTable</t>
   </si>
@@ -2135,88 +2135,46 @@
     <t>2020=100</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Food and non-alcoholic beverages</t>
   </si>
   <si>
-    <t>154.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Alcoholic beverages and tobacco</t>
   </si>
   <si>
-    <t>16.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Clothing and footwear</t>
   </si>
   <si>
-    <t>48.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Housing, water, electricity and other fuels</t>
   </si>
   <si>
-    <t>171.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Furnishings, household equipment and routine household maintenance</t>
   </si>
   <si>
-    <t>53.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Health</t>
   </si>
   <si>
-    <t>87.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Transport</t>
   </si>
   <si>
-    <t>106</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Communication</t>
   </si>
   <si>
-    <t>48.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Recreation and culture</t>
   </si>
   <si>
-    <t>57.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Education</t>
   </si>
   <si>
-    <t>70.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Restaurants and hotels</t>
   </si>
   <si>
-    <t>131.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Miscellaneous goods and services</t>
   </si>
   <si>
-    <t>54.2</t>
-  </si>
-  <si>
     <t>4.2.2. Consumer Price indices (All Cities, Special Groups)</t>
   </si>
   <si>
     <t>Excluding Agricultural products &amp; oils</t>
-  </si>
-  <si>
-    <t>912.1</t>
   </si>
   <si>
     <t>Remark</t>
@@ -2326,2101 +2284,2101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -8922,13 +8880,13 @@
       </c>
     </row>
     <row r="2" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>696</v>
       </c>
       <c r="D2" s="5"/>
@@ -12842,13 +12800,13 @@
       <c r="ZR3" s="1389"/>
     </row>
     <row r="4" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>696</v>
       </c>
       <c r="D4" s="5"/>
@@ -16762,17 +16720,17 @@
       <c r="ZR5" s="1389"/>
     </row>
     <row r="6" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>704</v>
+      <c r="D6" s="5">
+        <v>1000</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>697</v>
@@ -18850,13 +18808,13 @@
         <v>701</v>
       </c>
       <c r="B7" s="697" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C7" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="699" t="s">
-        <v>706</v>
+      <c r="D7" s="699">
+        <v>154.5</v>
       </c>
       <c r="E7" s="700" t="s">
         <v>697</v>
@@ -20450,17 +20408,17 @@
       </c>
     </row>
     <row r="8" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>708</v>
+      <c r="D8" s="5">
+        <v>16.5</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>697</v>
@@ -22058,13 +22016,13 @@
         <v>701</v>
       </c>
       <c r="B9" s="697" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C9" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D9" s="699" t="s">
-        <v>710</v>
+      <c r="D9" s="699">
+        <v>48.6</v>
       </c>
       <c r="E9" s="700" t="s">
         <v>697</v>
@@ -23658,17 +23616,17 @@
       </c>
     </row>
     <row r="10" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>712</v>
+      <c r="D10" s="5">
+        <v>171.6</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>697</v>
@@ -25266,13 +25224,13 @@
         <v>701</v>
       </c>
       <c r="B11" s="697" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C11" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D11" s="699" t="s">
-        <v>714</v>
+      <c r="D11" s="699">
+        <v>53.9</v>
       </c>
       <c r="E11" s="700" t="s">
         <v>697</v>
@@ -26866,17 +26824,17 @@
       </c>
     </row>
     <row r="12" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>716</v>
+      <c r="D12" s="5">
+        <v>87.2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>697</v>
@@ -28474,13 +28432,13 @@
         <v>701</v>
       </c>
       <c r="B13" s="697" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C13" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D13" s="699" t="s">
-        <v>718</v>
+      <c r="D13" s="699">
+        <v>106</v>
       </c>
       <c r="E13" s="700" t="s">
         <v>697</v>
@@ -30074,17 +30032,17 @@
       </c>
     </row>
     <row r="14" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>720</v>
+      <c r="D14" s="5">
+        <v>48.4</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>697</v>
@@ -31682,13 +31640,13 @@
         <v>701</v>
       </c>
       <c r="B15" s="697" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C15" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D15" s="699" t="s">
-        <v>722</v>
+      <c r="D15" s="699">
+        <v>57.5</v>
       </c>
       <c r="E15" s="700" t="s">
         <v>697</v>
@@ -33282,17 +33240,17 @@
       </c>
     </row>
     <row r="16" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>724</v>
+      <c r="D16" s="5">
+        <v>70.3</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>697</v>
@@ -34890,13 +34848,13 @@
         <v>701</v>
       </c>
       <c r="B17" s="697" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C17" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D17" s="699" t="s">
-        <v>726</v>
+      <c r="D17" s="699">
+        <v>131.30000000000001</v>
       </c>
       <c r="E17" s="700" t="s">
         <v>697</v>
@@ -36490,17 +36448,17 @@
       </c>
     </row>
     <row r="18" spans="1:694" ht="23.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>728</v>
+      <c r="D18" s="5">
+        <v>54.2</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>697</v>
@@ -38095,16 +38053,16 @@
     </row>
     <row r="19" spans="1:694" ht="23.25" customHeight="1">
       <c r="A19" s="696" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="B19" s="697" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C19" s="698" t="s">
         <v>703</v>
       </c>
-      <c r="D19" s="699" t="s">
-        <v>731</v>
+      <c r="D19" s="699">
+        <v>912.1</v>
       </c>
       <c r="E19" s="700" t="s">
         <v>697</v>
@@ -39956,12 +39914,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6" customHeight="1">
       <c r="A2" s="1390" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
